--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="282">
   <si>
     <t>2.1企业负责人信息</t>
   </si>
   <si>
+    <t>``.split('\n').filter(d =&gt; d)</t>
+  </si>
+  <si>
     <t>参数名</t>
   </si>
   <si>
@@ -62,6 +65,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>collectionNumber</t>
     </r>
     <r>
@@ -79,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>collectionNumber</t>
     </r>
     <r>
@@ -96,6 +111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>collectionNumber</t>
     </r>
     <r>
@@ -897,10 +918,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -925,14 +946,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,13 +991,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -961,54 +998,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,7 +1028,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1054,17 +1081,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1077,7 +1098,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,19 +1260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,151 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,30 +1364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1401,7 +1398,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,6 +1425,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,15 +1461,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1448,10 +1469,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,16 +1481,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1478,115 +1499,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1940,156 +1961,159 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.15" spans="1:1">
+    <row r="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="19.95" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="20.7" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="19.95" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="19.95" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="20.7" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="19.95" customHeight="1" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="20.7" customHeight="1" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="19.95" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="19.95" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="19.2" customHeight="1" spans="1:4">
@@ -2100,885 +2124,885 @@
     </row>
     <row r="14" ht="22.65" customHeight="1" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="19.95" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="20.7" customHeight="1" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="19.95" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="19.95" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="20.7" customHeight="1" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="19.95" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="19.95" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="20.7" customHeight="1" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="19.95" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="19.95" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="20.7" customHeight="1" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="19.95" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="19.95" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="20.7" customHeight="1" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="19.95" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="19.95" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="20.7" customHeight="1" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="20.7" customHeight="1" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" ht="39.15" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="20.7" customHeight="1" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" ht="39.9" customHeight="1" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" ht="58.35" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" ht="20.7" customHeight="1" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="19.95" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" ht="19.95" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" ht="20.7" customHeight="1" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="19.95" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" ht="19.95" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" ht="19.95" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" ht="39.15" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" ht="19.95" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" ht="21.15" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" ht="19.95" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" ht="19.95" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="19.95" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="19.95" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="19.95" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" ht="19.95" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" ht="19.95" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" ht="19.95" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" ht="19.95" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" ht="19.95" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" ht="19.95" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" ht="19.95" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" ht="19.95" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" ht="19.95" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" ht="19.95" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" ht="21.15" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" ht="19.95" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" ht="19.95" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" ht="19.95" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" ht="19.95" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" ht="19.95" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" ht="19.95" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" ht="19.95" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" ht="19.95" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="19.95" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" ht="19.95" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" ht="19.95" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
     </row>
     <row r="77" ht="21.15" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" ht="19.95" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" ht="19.95" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="19.95" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="19.95" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" ht="19.95" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" ht="19.95" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" ht="19.95" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" ht="19.95" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="19.95" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" ht="19.95" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="19.95" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" ht="19.95" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" ht="19.95" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" ht="15.15" spans="1:4">
       <c r="A91" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:4">
       <c r="A92" s="8"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" ht="15.15" spans="1:4">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2986,184 +3010,184 @@
     </row>
     <row r="95" ht="21.15" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" ht="19.95" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="19.95" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="19.95" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" ht="19.95" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" ht="19.95" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" ht="19.95" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" ht="19.95" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" ht="19.95" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" ht="19.95" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" ht="19.95" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" ht="19.95" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" ht="19.95" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" ht="19.95" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" ht="15.15" spans="1:4">
       <c r="A109" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" ht="15.15" spans="1:4">
       <c r="A110" s="8"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" ht="15.15" spans="1:4">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3171,227 +3195,227 @@
     </row>
     <row r="112" ht="19.95" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" ht="19.95" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" ht="19.95" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" ht="19.95" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" ht="19.95" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" ht="19.95" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" ht="19.95" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" ht="19.95" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" ht="19.95" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" ht="19.95" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" ht="19.95" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" ht="19.95" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" ht="39.15" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" ht="19.95" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" ht="19.95" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" ht="15.15" spans="1:4">
       <c r="A127" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" ht="15.15" spans="1:4">
       <c r="A128" s="8"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" ht="15.15" spans="1:4">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" ht="15.15" spans="1:4">
       <c r="A130" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" ht="15.15" spans="1:4">
       <c r="A131" s="8"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" ht="15.15" spans="1:4">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3399,26 +3423,26 @@
     </row>
     <row r="134" ht="21.15" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" ht="19.95" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" ht="19.95" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3426,95 +3450,95 @@
     </row>
     <row r="137" ht="19.95" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" ht="19.95" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" ht="19.95" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" ht="19.95" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" ht="19.95" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" ht="19.95" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" ht="15.15" spans="1:4">
       <c r="A143" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" ht="15.15" spans="1:4">
       <c r="A144" s="8"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" ht="15.15" spans="1:4">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3522,234 +3546,234 @@
     </row>
     <row r="146" ht="19.95" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" ht="19.95" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" ht="19.95" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" ht="19.95" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" ht="19.95" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" ht="19.95" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" ht="19.95" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" ht="39.15" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" ht="19.95" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" ht="19.95" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" ht="21.15" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" ht="19.95" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" ht="19.95" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" ht="19.95" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" ht="39.15" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" ht="19.95" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" ht="19.95" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" ht="19.95" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" ht="15.15" spans="1:4">
       <c r="A165" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" ht="15.15" spans="1:4">
       <c r="A166" s="8"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" ht="15.15" spans="1:4">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3757,144 +3781,144 @@
     </row>
     <row r="168" ht="19.95" spans="1:4">
       <c r="A168" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" ht="19.95" spans="1:4">
       <c r="A169" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" ht="19.95" spans="1:4">
       <c r="A170" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" ht="19.95" spans="1:4">
       <c r="A171" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172" ht="19.95" spans="1:4">
       <c r="A172" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" ht="19.95" spans="1:4">
       <c r="A173" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" ht="39.15" spans="1:4">
       <c r="A174" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" ht="19.95" spans="1:4">
       <c r="A175" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" ht="19.95" spans="1:4">
       <c r="A176" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" ht="19.95" spans="1:4">
       <c r="A177" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
     </row>
     <row r="179" ht="21.15" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" ht="19.95" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" ht="19.95" spans="1:4">
       <c r="A181" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3902,158 +3926,158 @@
     </row>
     <row r="182" ht="19.95" spans="1:4">
       <c r="A182" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" ht="19.95" spans="1:4">
       <c r="A183" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" ht="19.95" spans="1:4">
       <c r="A184" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" ht="19.95" spans="1:4">
       <c r="A185" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" ht="19.95" spans="1:4">
       <c r="A186" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" ht="19.95" spans="1:4">
       <c r="A187" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" ht="19.95" spans="1:4">
       <c r="A188" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" ht="19.95" spans="1:4">
       <c r="A189" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" ht="39.15" spans="1:4">
       <c r="A190" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" ht="19.95" spans="1:4">
       <c r="A191" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" ht="19.95" spans="1:4">
       <c r="A192" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" ht="21.15" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" ht="19.95" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" ht="19.95" spans="1:4">
       <c r="A196" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4061,158 +4085,158 @@
     </row>
     <row r="197" ht="19.95" spans="1:4">
       <c r="A197" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" ht="39.15" spans="1:4">
       <c r="A198" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" ht="19.95" spans="1:4">
       <c r="A199" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" ht="19.95" spans="1:4">
       <c r="A200" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" ht="19.95" spans="1:4">
       <c r="A201" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" ht="19.95" spans="1:4">
       <c r="A202" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" ht="19.95" spans="1:4">
       <c r="A203" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" ht="19.95" spans="1:4">
       <c r="A204" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" ht="39.15" spans="1:4">
       <c r="A205" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" ht="19.95" spans="1:4">
       <c r="A206" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" ht="19.95" spans="1:4">
       <c r="A207" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" ht="21.15" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" ht="19.95" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" ht="19.95" spans="1:4">
       <c r="A211" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4220,98 +4244,98 @@
     </row>
     <row r="212" ht="19.95" spans="1:4">
       <c r="A212" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" ht="19.95" spans="1:4">
       <c r="A213" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" ht="19.95" spans="1:4">
       <c r="A214" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" ht="19.95" spans="1:4">
       <c r="A215" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="216" ht="19.95" spans="1:4">
       <c r="A216" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="217" ht="19.95" spans="1:4">
       <c r="A217" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" ht="21.15" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" ht="19.95" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" ht="19.95" spans="1:4">
       <c r="A221" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4319,41 +4343,41 @@
     </row>
     <row r="222" ht="19.95" spans="1:4">
       <c r="A222" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" ht="19.95" spans="1:4">
       <c r="A223" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="224" ht="19.95" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="224" ht="15.15" spans="1:4">
       <c r="A224" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" ht="15.15" spans="1:4">
       <c r="A225" s="8"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -4361,65 +4385,65 @@
     </row>
     <row r="226" ht="19.95" spans="1:4">
       <c r="A226" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" ht="19.95" spans="1:4">
       <c r="A227" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" ht="19.95" spans="1:4">
       <c r="A228" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" ht="19.95" spans="1:4">
       <c r="A229" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="230" ht="19.95" spans="1:4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" ht="15.15" spans="1:4">
       <c r="A230" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="231" ht="15.15" spans="1:4">
       <c r="A231" s="8"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4427,65 +4451,65 @@
     </row>
     <row r="232" ht="19.95" spans="1:4">
       <c r="A232" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" ht="19.95" spans="1:4">
       <c r="A233" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" ht="19.95" spans="1:4">
       <c r="A234" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" ht="19.95" spans="1:4">
       <c r="A235" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="236" ht="19.95" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" ht="15.15" spans="1:4">
       <c r="A236" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="237" ht="15.15" spans="1:4">
       <c r="A237" s="8"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4493,156 +4517,156 @@
     </row>
     <row r="238" ht="19.95" spans="1:4">
       <c r="A238" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="239" ht="19.95" spans="1:4">
       <c r="A239" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="240" ht="19.95" spans="1:4">
       <c r="A240" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241" ht="19.95" spans="1:4">
       <c r="A241" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" ht="19.95" spans="1:4">
       <c r="A242" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243" ht="19.95" spans="1:4">
       <c r="A243" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="244" ht="19.95" spans="1:4">
       <c r="A244" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="245" ht="39.15" spans="1:4">
       <c r="A245" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="246" ht="19.95" spans="1:4">
       <c r="A246" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="247" ht="19.95" spans="1:4">
       <c r="A247" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" ht="19.95" spans="1:4">
       <c r="A248" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="7"/>
     </row>
     <row r="250" ht="21.15" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" ht="19.95" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" ht="19.95" spans="1:4">
       <c r="A252" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4650,242 +4674,242 @@
     </row>
     <row r="253" ht="19.95" spans="1:4">
       <c r="A253" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" ht="39.15" spans="1:4">
       <c r="A254" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" ht="19.95" spans="1:4">
       <c r="A255" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" ht="19.95" spans="1:4">
       <c r="A256" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="257" ht="19.95" spans="1:4">
       <c r="A257" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="258" ht="19.95" spans="1:4">
       <c r="A258" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" ht="19.95" spans="1:4">
       <c r="A259" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" ht="19.95" spans="1:4">
       <c r="A260" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" ht="19.95" spans="1:4">
       <c r="A261" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="262" ht="19.95" spans="1:4">
       <c r="A262" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="263" ht="19.95" spans="1:4">
       <c r="A263" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264" ht="19.95" spans="1:4">
       <c r="A264" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265" ht="19.95" spans="1:4">
       <c r="A265" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="266" ht="19.95" spans="1:4">
       <c r="A266" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="267" ht="39.15" spans="1:4">
       <c r="A267" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="268" ht="19.95" spans="1:4">
       <c r="A268" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="269" ht="19.95" spans="1:4">
       <c r="A269" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" ht="19.95" spans="1:4">
       <c r="A270" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" ht="21.15" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" ht="19.95" spans="1:4">
       <c r="A273" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" ht="19.95" spans="1:4">
       <c r="A274" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4893,26 +4917,26 @@
     </row>
     <row r="275" ht="19.95" spans="1:4">
       <c r="A275" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="276" ht="15.15" spans="1:4">
       <c r="A276" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="277" ht="15.15" spans="1:4">
@@ -4929,146 +4953,146 @@
     </row>
     <row r="279" ht="19.95" spans="1:4">
       <c r="A279" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280" ht="19.95" spans="1:4">
       <c r="A280" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" ht="19.95" spans="1:4">
       <c r="A281" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="282" ht="19.95" spans="1:4">
       <c r="A282" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="283" ht="19.95" spans="1:4">
       <c r="A283" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284" ht="19.95" spans="1:4">
       <c r="A284" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" ht="19.95" spans="1:4">
       <c r="A285" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="286" ht="19.95" spans="1:4">
       <c r="A286" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="287" ht="39.15" spans="1:4">
       <c r="A287" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="288" ht="19.95" spans="1:4">
       <c r="A288" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="289" ht="19.95" spans="1:4">
       <c r="A289" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" ht="19.95" spans="1:4">
       <c r="A290" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
